--- a/Model/BayesLSTM/Multivariate/result/Service/AUS.xlsx
+++ b/Model/BayesLSTM/Multivariate/result/Service/AUS.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,13 +463,13 @@
         <v>1998</v>
       </c>
       <c r="B2" t="n">
-        <v>65.05477142333984</v>
+        <v>64.00172424316406</v>
       </c>
       <c r="C2" t="n">
-        <v>64.20690155029297</v>
+        <v>63.22040557861328</v>
       </c>
       <c r="D2" t="n">
-        <v>65.90264129638672</v>
+        <v>64.78304290771484</v>
       </c>
     </row>
     <row r="3">
@@ -477,13 +477,13 @@
         <v>1999</v>
       </c>
       <c r="B3" t="n">
-        <v>64.70822143554688</v>
+        <v>64.36878967285156</v>
       </c>
       <c r="C3" t="n">
-        <v>63.38748931884766</v>
+        <v>63.53989028930664</v>
       </c>
       <c r="D3" t="n">
-        <v>66.02895355224609</v>
+        <v>65.19768524169922</v>
       </c>
     </row>
     <row r="4">
@@ -491,13 +491,13 @@
         <v>2000</v>
       </c>
       <c r="B4" t="n">
-        <v>64.94306182861328</v>
+        <v>64.76701354980469</v>
       </c>
       <c r="C4" t="n">
-        <v>63.75233459472656</v>
+        <v>63.81450271606445</v>
       </c>
       <c r="D4" t="n">
-        <v>66.1337890625</v>
+        <v>65.71952056884766</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         <v>2001</v>
       </c>
       <c r="B5" t="n">
-        <v>64.953857421875</v>
+        <v>64.34662628173828</v>
       </c>
       <c r="C5" t="n">
-        <v>63.50102615356445</v>
+        <v>63.17023849487305</v>
       </c>
       <c r="D5" t="n">
-        <v>66.40669250488281</v>
+        <v>65.52301025390625</v>
       </c>
     </row>
     <row r="6">
@@ -519,13 +519,13 @@
         <v>2002</v>
       </c>
       <c r="B6" t="n">
-        <v>65.03113555908203</v>
+        <v>64.41425323486328</v>
       </c>
       <c r="C6" t="n">
-        <v>63.35377883911133</v>
+        <v>63.37332916259766</v>
       </c>
       <c r="D6" t="n">
-        <v>66.70849609375</v>
+        <v>65.45517730712891</v>
       </c>
     </row>
     <row r="7">
@@ -533,13 +533,13 @@
         <v>2003</v>
       </c>
       <c r="B7" t="n">
-        <v>64.76949310302734</v>
+        <v>64.52244567871094</v>
       </c>
       <c r="C7" t="n">
-        <v>63.30840682983398</v>
+        <v>63.77980422973633</v>
       </c>
       <c r="D7" t="n">
-        <v>66.23057556152344</v>
+        <v>65.26509094238281</v>
       </c>
     </row>
     <row r="8">
@@ -547,13 +547,13 @@
         <v>2004</v>
       </c>
       <c r="B8" t="n">
-        <v>64.61512756347656</v>
+        <v>64.37477874755859</v>
       </c>
       <c r="C8" t="n">
-        <v>62.95469284057617</v>
+        <v>63.59008407592773</v>
       </c>
       <c r="D8" t="n">
-        <v>66.27555847167969</v>
+        <v>65.15947723388672</v>
       </c>
     </row>
     <row r="9">
@@ -561,13 +561,13 @@
         <v>2005</v>
       </c>
       <c r="B9" t="n">
-        <v>64.92713928222656</v>
+        <v>64.41032409667969</v>
       </c>
       <c r="C9" t="n">
-        <v>63.30305099487305</v>
+        <v>63.40966033935547</v>
       </c>
       <c r="D9" t="n">
-        <v>66.55122375488281</v>
+        <v>65.41098785400391</v>
       </c>
     </row>
     <row r="10">
@@ -575,13 +575,13 @@
         <v>2006</v>
       </c>
       <c r="B10" t="n">
-        <v>64.9193115234375</v>
+        <v>64.45143890380859</v>
       </c>
       <c r="C10" t="n">
-        <v>63.45437240600586</v>
+        <v>63.62865447998047</v>
       </c>
       <c r="D10" t="n">
-        <v>66.38424682617188</v>
+        <v>65.27422332763672</v>
       </c>
     </row>
     <row r="11">
@@ -589,13 +589,13 @@
         <v>2007</v>
       </c>
       <c r="B11" t="n">
-        <v>64.73228454589844</v>
+        <v>64.59355163574219</v>
       </c>
       <c r="C11" t="n">
-        <v>62.99278259277344</v>
+        <v>63.79369354248047</v>
       </c>
       <c r="D11" t="n">
-        <v>66.47178649902344</v>
+        <v>65.39340972900391</v>
       </c>
     </row>
     <row r="12">
@@ -603,13 +603,13 @@
         <v>2008</v>
       </c>
       <c r="B12" t="n">
-        <v>64.74992370605469</v>
+        <v>64.41758728027344</v>
       </c>
       <c r="C12" t="n">
-        <v>63.55672836303711</v>
+        <v>63.54325866699219</v>
       </c>
       <c r="D12" t="n">
-        <v>65.94312286376953</v>
+        <v>65.29191589355469</v>
       </c>
     </row>
     <row r="13">
@@ -617,13 +617,13 @@
         <v>2009</v>
       </c>
       <c r="B13" t="n">
-        <v>64.73414611816406</v>
+        <v>64.23518371582031</v>
       </c>
       <c r="C13" t="n">
-        <v>63.3760871887207</v>
+        <v>63.47916412353516</v>
       </c>
       <c r="D13" t="n">
-        <v>66.09220886230469</v>
+        <v>64.99120330810547</v>
       </c>
     </row>
     <row r="14">
@@ -631,13 +631,13 @@
         <v>2010</v>
       </c>
       <c r="B14" t="n">
-        <v>64.76417541503906</v>
+        <v>64.65909576416016</v>
       </c>
       <c r="C14" t="n">
-        <v>63.27902984619141</v>
+        <v>63.70453643798828</v>
       </c>
       <c r="D14" t="n">
-        <v>66.24932098388672</v>
+        <v>65.61365509033203</v>
       </c>
     </row>
     <row r="15">
@@ -645,13 +645,13 @@
         <v>2011</v>
       </c>
       <c r="B15" t="n">
-        <v>64.73096466064453</v>
+        <v>64.64615631103516</v>
       </c>
       <c r="C15" t="n">
-        <v>63.68380737304688</v>
+        <v>63.66854858398438</v>
       </c>
       <c r="D15" t="n">
-        <v>65.77812194824219</v>
+        <v>65.62376403808594</v>
       </c>
     </row>
     <row r="16">
@@ -659,13 +659,13 @@
         <v>2012</v>
       </c>
       <c r="B16" t="n">
-        <v>64.56952667236328</v>
+        <v>64.64965057373047</v>
       </c>
       <c r="C16" t="n">
-        <v>63.62768936157227</v>
+        <v>63.94155120849609</v>
       </c>
       <c r="D16" t="n">
-        <v>65.51136016845703</v>
+        <v>65.35774993896484</v>
       </c>
     </row>
     <row r="17">
@@ -673,13 +673,13 @@
         <v>2013</v>
       </c>
       <c r="B17" t="n">
-        <v>65.01982879638672</v>
+        <v>64.38124084472656</v>
       </c>
       <c r="C17" t="n">
-        <v>64.17183685302734</v>
+        <v>63.75852966308594</v>
       </c>
       <c r="D17" t="n">
-        <v>65.86782073974609</v>
+        <v>65.00395202636719</v>
       </c>
     </row>
     <row r="18">
@@ -687,13 +687,13 @@
         <v>2014</v>
       </c>
       <c r="B18" t="n">
-        <v>64.62746429443359</v>
+        <v>64.78904724121094</v>
       </c>
       <c r="C18" t="n">
-        <v>63.66796875</v>
+        <v>63.63816833496094</v>
       </c>
       <c r="D18" t="n">
-        <v>65.58695983886719</v>
+        <v>65.93992614746094</v>
       </c>
     </row>
     <row r="19">
@@ -701,13 +701,13 @@
         <v>2015</v>
       </c>
       <c r="B19" t="n">
-        <v>64.98060607910156</v>
+        <v>64.55267333984375</v>
       </c>
       <c r="C19" t="n">
-        <v>63.61652755737305</v>
+        <v>63.77045440673828</v>
       </c>
       <c r="D19" t="n">
-        <v>66.34468078613281</v>
+        <v>65.33489227294922</v>
       </c>
     </row>
     <row r="20">
@@ -715,83 +715,13 @@
         <v>2016</v>
       </c>
       <c r="B20" t="n">
-        <v>64.88214111328125</v>
+        <v>64.18886566162109</v>
       </c>
       <c r="C20" t="n">
-        <v>63.58573150634766</v>
+        <v>63.32990264892578</v>
       </c>
       <c r="D20" t="n">
-        <v>66.17855072021484</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B21" t="n">
-        <v>64.83048248291016</v>
-      </c>
-      <c r="C21" t="n">
-        <v>64.0234375</v>
-      </c>
-      <c r="D21" t="n">
-        <v>65.63752746582031</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B22" t="n">
-        <v>64.61958312988281</v>
-      </c>
-      <c r="C22" t="n">
-        <v>63.74201202392578</v>
-      </c>
-      <c r="D22" t="n">
-        <v>65.49715423583984</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B23" t="n">
-        <v>65.06463623046875</v>
-      </c>
-      <c r="C23" t="n">
-        <v>63.52745056152344</v>
-      </c>
-      <c r="D23" t="n">
-        <v>66.60182189941406</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B24" t="n">
-        <v>64.73172760009766</v>
-      </c>
-      <c r="C24" t="n">
-        <v>62.86230850219727</v>
-      </c>
-      <c r="D24" t="n">
-        <v>66.60114288330078</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B25" t="n">
-        <v>64.89057922363281</v>
-      </c>
-      <c r="C25" t="n">
-        <v>63.32856369018555</v>
-      </c>
-      <c r="D25" t="n">
-        <v>66.45259094238281</v>
+        <v>65.04782867431641</v>
       </c>
     </row>
   </sheetData>
@@ -837,72 +767,72 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>63.49655990600586</v>
+        <v>64.25670623779297</v>
       </c>
       <c r="C2" t="n">
-        <v>63.17459001944032</v>
+        <v>62.83561706542969</v>
       </c>
       <c r="D2" t="n">
-        <v>63.8185297925714</v>
+        <v>65.67779541015625</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>63.95148544311523</v>
+        <v>64.33177185058594</v>
       </c>
       <c r="C3" t="n">
-        <v>63.25811027052232</v>
+        <v>63.16152954101562</v>
       </c>
       <c r="D3" t="n">
-        <v>64.64486061570814</v>
+        <v>65.50201416015625</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>63.61270332336426</v>
+        <v>64.33606719970703</v>
       </c>
       <c r="C4" t="n">
-        <v>62.68990001457557</v>
+        <v>63.20290756225586</v>
       </c>
       <c r="D4" t="n">
-        <v>64.53550663215294</v>
+        <v>65.46922302246094</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>64.33026657104492</v>
+        <v>64.35173034667969</v>
       </c>
       <c r="C5" t="n">
-        <v>63.57666594892215</v>
+        <v>63.48326873779297</v>
       </c>
       <c r="D5" t="n">
-        <v>65.08386719316768</v>
+        <v>65.22019195556641</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>64.50555152893067</v>
+        <v>64.39731597900391</v>
       </c>
       <c r="C6" t="n">
-        <v>63.4491422708517</v>
+        <v>63.43429946899414</v>
       </c>
       <c r="D6" t="n">
-        <v>65.56196078700964</v>
+        <v>65.36033630371094</v>
       </c>
     </row>
   </sheetData>
@@ -951,13 +881,13 @@
         <v>1998</v>
       </c>
       <c r="B2" t="n">
-        <v>64.73961639404297</v>
+        <v>63.05458450317383</v>
       </c>
       <c r="C2" t="n">
-        <v>63.87197494506836</v>
+        <v>62.13612747192383</v>
       </c>
       <c r="D2" t="n">
-        <v>65.60726165771484</v>
+        <v>63.97304153442383</v>
       </c>
     </row>
     <row r="3">
@@ -965,13 +895,13 @@
         <v>1999</v>
       </c>
       <c r="B3" t="n">
-        <v>65.06093597412109</v>
+        <v>63.18814086914062</v>
       </c>
       <c r="C3" t="n">
-        <v>63.73784637451172</v>
+        <v>62.52183151245117</v>
       </c>
       <c r="D3" t="n">
-        <v>66.38402557373047</v>
+        <v>63.85445022583008</v>
       </c>
     </row>
     <row r="4">
@@ -979,13 +909,13 @@
         <v>2000</v>
       </c>
       <c r="B4" t="n">
-        <v>64.95839691162109</v>
+        <v>63.27154541015625</v>
       </c>
       <c r="C4" t="n">
-        <v>63.65394973754883</v>
+        <v>62.3130989074707</v>
       </c>
       <c r="D4" t="n">
-        <v>66.26284027099609</v>
+        <v>64.22999572753906</v>
       </c>
     </row>
     <row r="5">
@@ -993,13 +923,13 @@
         <v>2001</v>
       </c>
       <c r="B5" t="n">
-        <v>65.00907897949219</v>
+        <v>63.67098236083984</v>
       </c>
       <c r="C5" t="n">
-        <v>63.71193695068359</v>
+        <v>62.36423492431641</v>
       </c>
       <c r="D5" t="n">
-        <v>66.30622100830078</v>
+        <v>64.97772979736328</v>
       </c>
     </row>
     <row r="6">
@@ -1007,13 +937,13 @@
         <v>2002</v>
       </c>
       <c r="B6" t="n">
-        <v>64.82484436035156</v>
+        <v>63.34372711181641</v>
       </c>
       <c r="C6" t="n">
-        <v>63.25587844848633</v>
+        <v>62.3187255859375</v>
       </c>
       <c r="D6" t="n">
-        <v>66.39381408691406</v>
+        <v>64.36872863769531</v>
       </c>
     </row>
     <row r="7">
@@ -1021,13 +951,13 @@
         <v>2003</v>
       </c>
       <c r="B7" t="n">
-        <v>64.92808532714844</v>
+        <v>63.38651657104492</v>
       </c>
       <c r="C7" t="n">
-        <v>63.55162811279297</v>
+        <v>62.59181976318359</v>
       </c>
       <c r="D7" t="n">
-        <v>66.30454254150391</v>
+        <v>64.18121337890625</v>
       </c>
     </row>
     <row r="8">
@@ -1035,13 +965,13 @@
         <v>2004</v>
       </c>
       <c r="B8" t="n">
-        <v>65.0040283203125</v>
+        <v>63.47452545166016</v>
       </c>
       <c r="C8" t="n">
-        <v>63.46689605712891</v>
+        <v>62.32291030883789</v>
       </c>
       <c r="D8" t="n">
-        <v>66.54116058349609</v>
+        <v>64.62614440917969</v>
       </c>
     </row>
     <row r="9">
@@ -1049,13 +979,13 @@
         <v>2005</v>
       </c>
       <c r="B9" t="n">
-        <v>64.98736572265625</v>
+        <v>63.19478607177734</v>
       </c>
       <c r="C9" t="n">
-        <v>63.73950958251953</v>
+        <v>62.1658821105957</v>
       </c>
       <c r="D9" t="n">
-        <v>66.23522186279297</v>
+        <v>64.22368621826172</v>
       </c>
     </row>
     <row r="10">
@@ -1063,13 +993,13 @@
         <v>2006</v>
       </c>
       <c r="B10" t="n">
-        <v>65.03104400634766</v>
+        <v>63.50457763671875</v>
       </c>
       <c r="C10" t="n">
-        <v>64.12297058105469</v>
+        <v>62.58948516845703</v>
       </c>
       <c r="D10" t="n">
-        <v>65.93911743164062</v>
+        <v>64.41967010498047</v>
       </c>
     </row>
     <row r="11">
@@ -1077,13 +1007,13 @@
         <v>2007</v>
       </c>
       <c r="B11" t="n">
-        <v>65.37777709960938</v>
+        <v>63.26471710205078</v>
       </c>
       <c r="C11" t="n">
-        <v>64.53402709960938</v>
+        <v>62.02450942993164</v>
       </c>
       <c r="D11" t="n">
-        <v>66.22152709960938</v>
+        <v>64.50492858886719</v>
       </c>
     </row>
     <row r="12">
@@ -1091,13 +1021,13 @@
         <v>2008</v>
       </c>
       <c r="B12" t="n">
-        <v>65.28916168212891</v>
+        <v>63.35225296020508</v>
       </c>
       <c r="C12" t="n">
-        <v>64.53144836425781</v>
+        <v>62.44998168945312</v>
       </c>
       <c r="D12" t="n">
-        <v>66.046875</v>
+        <v>64.25452423095703</v>
       </c>
     </row>
     <row r="13">
@@ -1105,13 +1035,13 @@
         <v>2009</v>
       </c>
       <c r="B13" t="n">
-        <v>65.06114196777344</v>
+        <v>63.06924438476562</v>
       </c>
       <c r="C13" t="n">
-        <v>63.80862045288086</v>
+        <v>62.1068115234375</v>
       </c>
       <c r="D13" t="n">
-        <v>66.31365966796875</v>
+        <v>64.03167724609375</v>
       </c>
     </row>
     <row r="14">
@@ -1119,13 +1049,13 @@
         <v>2010</v>
       </c>
       <c r="B14" t="n">
-        <v>65.28476715087891</v>
+        <v>63.04503631591797</v>
       </c>
       <c r="C14" t="n">
-        <v>64.39910888671875</v>
+        <v>62.33761596679688</v>
       </c>
       <c r="D14" t="n">
-        <v>66.17042541503906</v>
+        <v>63.75245666503906</v>
       </c>
     </row>
     <row r="15">
@@ -1133,13 +1063,13 @@
         <v>2011</v>
       </c>
       <c r="B15" t="n">
-        <v>65.31160736083984</v>
+        <v>63.31716156005859</v>
       </c>
       <c r="C15" t="n">
-        <v>64.25497436523438</v>
+        <v>62.34486770629883</v>
       </c>
       <c r="D15" t="n">
-        <v>66.36824035644531</v>
+        <v>64.28945922851562</v>
       </c>
     </row>
     <row r="16">
@@ -1147,13 +1077,13 @@
         <v>2012</v>
       </c>
       <c r="B16" t="n">
-        <v>65.11212158203125</v>
+        <v>63.12324142456055</v>
       </c>
       <c r="C16" t="n">
-        <v>63.7469482421875</v>
+        <v>62.49489212036133</v>
       </c>
       <c r="D16" t="n">
-        <v>66.477294921875</v>
+        <v>63.75159072875977</v>
       </c>
     </row>
     <row r="17">
@@ -1161,13 +1091,13 @@
         <v>2013</v>
       </c>
       <c r="B17" t="n">
-        <v>65.42192077636719</v>
+        <v>63.43672561645508</v>
       </c>
       <c r="C17" t="n">
-        <v>64.00497436523438</v>
+        <v>62.90849685668945</v>
       </c>
       <c r="D17" t="n">
-        <v>66.8388671875</v>
+        <v>63.9649543762207</v>
       </c>
     </row>
     <row r="18">
@@ -1175,13 +1105,13 @@
         <v>2014</v>
       </c>
       <c r="B18" t="n">
-        <v>64.80975341796875</v>
+        <v>63.20015335083008</v>
       </c>
       <c r="C18" t="n">
-        <v>63.72928237915039</v>
+        <v>62.17440032958984</v>
       </c>
       <c r="D18" t="n">
-        <v>65.89022064208984</v>
+        <v>64.22590637207031</v>
       </c>
     </row>
     <row r="19">
@@ -1189,13 +1119,13 @@
         <v>2015</v>
       </c>
       <c r="B19" t="n">
-        <v>65.30361175537109</v>
+        <v>63.20845413208008</v>
       </c>
       <c r="C19" t="n">
-        <v>64.53697967529297</v>
+        <v>62.45629501342773</v>
       </c>
       <c r="D19" t="n">
-        <v>66.07024383544922</v>
+        <v>63.96061325073242</v>
       </c>
     </row>
     <row r="20">
@@ -1203,13 +1133,13 @@
         <v>2016</v>
       </c>
       <c r="B20" t="n">
-        <v>65.12439727783203</v>
+        <v>63.28007888793945</v>
       </c>
       <c r="C20" t="n">
-        <v>63.73299407958984</v>
+        <v>62.52370071411133</v>
       </c>
       <c r="D20" t="n">
-        <v>66.51580047607422</v>
+        <v>64.03646087646484</v>
       </c>
     </row>
     <row r="21">
@@ -1217,13 +1147,13 @@
         <v>2017</v>
       </c>
       <c r="B21" t="n">
-        <v>64.94905090332031</v>
+        <v>63.32628631591797</v>
       </c>
       <c r="C21" t="n">
-        <v>63.73336791992188</v>
+        <v>62.35834121704102</v>
       </c>
       <c r="D21" t="n">
-        <v>66.16473388671875</v>
+        <v>64.29423522949219</v>
       </c>
     </row>
     <row r="22">
@@ -1231,13 +1161,13 @@
         <v>2018</v>
       </c>
       <c r="B22" t="n">
-        <v>64.93812561035156</v>
+        <v>63.13482666015625</v>
       </c>
       <c r="C22" t="n">
-        <v>63.32230377197266</v>
+        <v>62.63328170776367</v>
       </c>
       <c r="D22" t="n">
-        <v>66.55394744873047</v>
+        <v>63.63637161254883</v>
       </c>
     </row>
     <row r="23">
@@ -1245,13 +1175,13 @@
         <v>2019</v>
       </c>
       <c r="B23" t="n">
-        <v>64.96898651123047</v>
+        <v>63.19500732421875</v>
       </c>
       <c r="C23" t="n">
-        <v>63.81647109985352</v>
+        <v>62.49676513671875</v>
       </c>
       <c r="D23" t="n">
-        <v>66.12150573730469</v>
+        <v>63.89324951171875</v>
       </c>
     </row>
     <row r="24">
@@ -1259,13 +1189,13 @@
         <v>2020</v>
       </c>
       <c r="B24" t="n">
-        <v>64.69715881347656</v>
+        <v>63.2807731628418</v>
       </c>
       <c r="C24" t="n">
-        <v>63.07794570922852</v>
+        <v>62.38823699951172</v>
       </c>
       <c r="D24" t="n">
-        <v>66.31636810302734</v>
+        <v>64.17330932617188</v>
       </c>
     </row>
     <row r="25">
@@ -1273,13 +1203,13 @@
         <v>2021</v>
       </c>
       <c r="B25" t="n">
-        <v>64.82789611816406</v>
+        <v>63.36758422851562</v>
       </c>
       <c r="C25" t="n">
-        <v>63.35200500488281</v>
+        <v>62.85953521728516</v>
       </c>
       <c r="D25" t="n">
-        <v>66.30378723144531</v>
+        <v>63.87563323974609</v>
       </c>
     </row>
   </sheetData>
@@ -1328,13 +1258,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>65.01205749511719</v>
+        <v>63.14612236022949</v>
       </c>
       <c r="C2" t="n">
-        <v>63.89778039994071</v>
+        <v>61.96252110828358</v>
       </c>
       <c r="D2" t="n">
-        <v>66.12633459029368</v>
+        <v>64.3297236121754</v>
       </c>
     </row>
     <row r="3">
@@ -1342,13 +1272,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>65.01070709228516</v>
+        <v>63.71019592285156</v>
       </c>
       <c r="C3" t="n">
-        <v>64.18680735799137</v>
+        <v>62.90682484378282</v>
       </c>
       <c r="D3" t="n">
-        <v>65.83460682657895</v>
+        <v>64.51356700192031</v>
       </c>
     </row>
     <row r="4">
@@ -1356,13 +1286,13 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>65.06979675292969</v>
+        <v>64.01993370056152</v>
       </c>
       <c r="C4" t="n">
-        <v>64.19570423214898</v>
+        <v>63.39207823318176</v>
       </c>
       <c r="D4" t="n">
-        <v>65.9438892737104</v>
+        <v>64.64778916794128</v>
       </c>
     </row>
     <row r="5">
@@ -1370,13 +1300,13 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>65.12754669189454</v>
+        <v>65.05373382568359</v>
       </c>
       <c r="C5" t="n">
-        <v>64.80809288932878</v>
+        <v>64.32995120011779</v>
       </c>
       <c r="D5" t="n">
-        <v>65.4470004944603</v>
+        <v>65.7775164512494</v>
       </c>
     </row>
     <row r="6">
@@ -1384,13 +1314,13 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>64.64985542297363</v>
+        <v>63.25933303833008</v>
       </c>
       <c r="C6" t="n">
-        <v>63.27226481417479</v>
+        <v>62.62794826071453</v>
       </c>
       <c r="D6" t="n">
-        <v>66.02744603177247</v>
+        <v>63.89071781594562</v>
       </c>
     </row>
   </sheetData>
